--- a/OptiStyle.xlsx
+++ b/OptiStyle.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\10016153B\Desktop\PythonEss\CerminMata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D72DA8A-7D33-4D59-BB8C-70E8F50E354C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A67E9D5-1FA0-4C0E-85CA-FF16BB8746CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2860" yWindow="2650" windowWidth="14400" windowHeight="8170" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Content" sheetId="1" r:id="rId1"/>
@@ -224,6 +224,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="[$-14409]yyyy\-mm\-dd;@"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -273,12 +276,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -715,7 +721,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
@@ -905,17 +913,17 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.08984375" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>50</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -926,7 +934,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="A2" s="3" t="s">
         <v>53</v>
       </c>
       <c r="B2" t="s">
@@ -937,7 +945,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+      <c r="A3" s="3" t="s">
         <v>56</v>
       </c>
       <c r="B3" t="s">
@@ -948,7 +956,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+      <c r="A4" s="3" t="s">
         <v>59</v>
       </c>
       <c r="B4" t="s">
@@ -971,14 +979,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="10.08984375" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.26953125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>50</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -986,7 +998,7 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" s="2">
+      <c r="A2" s="3">
         <v>45901</v>
       </c>
       <c r="B2" t="s">
@@ -994,7 +1006,7 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" s="2">
+      <c r="A3" s="3">
         <v>45902</v>
       </c>
       <c r="B3" t="s">

--- a/OptiStyle.xlsx
+++ b/OptiStyle.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr codeName="ThisWorkbook"/>
   <sheets>
-    <sheet name="Config" sheetId="1" r:id="rId1"/>
+    <sheet name="Theme" sheetId="1" r:id="rId1"/>
     <sheet name="Content" sheetId="2" r:id="rId2"/>
     <sheet name="Navigation" sheetId="3" r:id="rId3"/>
     <sheet name="Products" sheetId="4" r:id="rId4"/>
@@ -402,147 +402,88 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
-        <v>Category</v>
+        <v>BackgroundColor</v>
       </c>
       <c r="B1" t="str">
-        <v>Company Name</v>
+        <v>TextColor</v>
       </c>
       <c r="C1" t="str">
-        <v>Logo</v>
+        <v>HeaderBackground</v>
       </c>
       <c r="D1" t="str">
-        <v>Site Name</v>
-      </c>
-      <c r="E1" t="str">
-        <v>Header Tagline</v>
-      </c>
-      <c r="F1" t="str">
-        <v>Primary Color</v>
-      </c>
-      <c r="G1" t="str">
-        <v>Secondary Color</v>
-      </c>
-      <c r="H1" t="str">
-        <v>Accent Color</v>
-      </c>
-      <c r="I1" t="str">
-        <v>Text Color</v>
-      </c>
-      <c r="J1" t="str">
-        <v>Background Color</v>
+        <v>FooterBackground</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>Branding</v>
+        <v>#f0f4f8</v>
       </c>
       <c r="B2" t="str">
-        <v>Your Company Name</v>
+        <v>#334155</v>
       </c>
       <c r="C2" t="str">
-        <v/>
+        <v>#ffffff</v>
       </c>
       <c r="D2" t="str">
-        <v>Your Website</v>
-      </c>
-      <c r="E2" t="str">
-        <v>Your Tagline Here</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>Colors</v>
-      </c>
-      <c r="F3" t="str">
-        <v>#4f46e5</v>
-      </c>
-      <c r="G3" t="str">
-        <v>#ec4899</v>
-      </c>
-      <c r="H3" t="str">
-        <v>#10b981</v>
-      </c>
-      <c r="I3" t="str">
-        <v>#334155</v>
-      </c>
-      <c r="J3" t="str">
-        <v>#f0f4f8</v>
+        <v>#1e293b</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:J3"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D2"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
-        <v>Category</v>
+        <v>Section</v>
       </c>
       <c r="B1" t="str">
-        <v>Title</v>
-      </c>
-      <c r="C1" t="str">
-        <v>Subtitle</v>
-      </c>
-      <c r="D1" t="str">
-        <v>Content</v>
-      </c>
-      <c r="E1" t="str">
-        <v>Copyright</v>
+        <v>Text</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>Hero Section</v>
+        <v>HeroTitle</v>
       </c>
       <c r="B2" t="str">
-        <v>Main Website Title</v>
-      </c>
-      <c r="C2" t="str">
-        <v>Your website description goes here</v>
+        <v>See the World Clearly</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>About Us</v>
+        <v>HeroSubtitle</v>
       </c>
       <c r="B3" t="str">
-        <v>About Us Section Title</v>
-      </c>
-      <c r="D3" t="str">
-        <v>Your company information here.</v>
+        <v>Premium eyewear and contact lenses for comfort and style.</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>Footer</v>
+        <v>FooterTagline</v>
       </c>
       <c r="B4" t="str">
-        <v>Footer Title</v>
-      </c>
-      <c r="E4" t="str">
-        <v>© 2023 Your Company Name</v>
+        <v>Your Vision Partner</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E4"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:B4"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -556,7 +497,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
-        <v>Menu Item</v>
+        <v>MenuItem</v>
       </c>
       <c r="B1" t="str">
         <v>Link</v>
@@ -603,14 +544,14 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
-        <v>Product Name</v>
+        <v>ProductName</v>
       </c>
       <c r="B1" t="str">
         <v>Description</v>
@@ -618,55 +559,43 @@
       <c r="C1" t="str">
         <v>Price</v>
       </c>
-      <c r="D1" t="str">
-        <v>Category</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>Product One</v>
+        <v>Classic Black Frames</v>
       </c>
       <c r="B2" t="str">
-        <v>Product description here</v>
-      </c>
-      <c r="C2" t="str">
-        <v>$99.99</v>
-      </c>
-      <c r="D2" t="str">
-        <v>Category A</v>
+        <v>Timeless acetate frames with durable hinges.</v>
+      </c>
+      <c r="C2">
+        <v>129.99</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>Product Two</v>
+        <v>Air Light Titanium</v>
       </c>
       <c r="B3" t="str">
-        <v>Product description here</v>
-      </c>
-      <c r="C3" t="str">
-        <v>$149.99</v>
-      </c>
-      <c r="D3" t="str">
-        <v>Category B</v>
+        <v>Ultra-lightweight titanium for all-day comfort.</v>
+      </c>
+      <c r="C3">
+        <v>189.99</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>Product Three</v>
+        <v>Blue Light Protection</v>
       </c>
       <c r="B4" t="str">
-        <v>Product description here</v>
-      </c>
-      <c r="C4" t="str">
-        <v>$199.99</v>
-      </c>
-      <c r="D4" t="str">
-        <v>Category A</v>
+        <v>Reduces eye strain from digital screens.</v>
+      </c>
+      <c r="C4">
+        <v>159.99</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D4"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C4"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -680,7 +609,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
-        <v>Service Name</v>
+        <v>ServiceName</v>
       </c>
       <c r="B1" t="str">
         <v>Description</v>
@@ -691,35 +620,35 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>Service One</v>
+        <v>Eye Exam</v>
       </c>
       <c r="B2" t="str">
-        <v>Service description here</v>
-      </c>
-      <c r="C2" t="str">
-        <v>$49.99</v>
+        <v>Comprehensive vision testing and diagnosis.</v>
+      </c>
+      <c r="C2">
+        <v>49.99</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>Service Two</v>
+        <v>Lens Fitting</v>
       </c>
       <c r="B3" t="str">
-        <v>Service description here</v>
-      </c>
-      <c r="C3" t="str">
-        <v>$79.99</v>
+        <v>Personalized contact lens fitting session.</v>
+      </c>
+      <c r="C3">
+        <v>79.99</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>Service Three</v>
+        <v>Frame Styling</v>
       </c>
       <c r="B4" t="str">
-        <v>Service description here</v>
-      </c>
-      <c r="C4" t="str">
-        <v>$129.99</v>
+        <v>Expert guidance to choose the perfect frame.</v>
+      </c>
+      <c r="C4">
+        <v>29.99</v>
       </c>
     </row>
   </sheetData>
@@ -731,60 +660,54 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
-        <v>Category</v>
+        <v>Address</v>
       </c>
       <c r="B1" t="str">
-        <v>Address</v>
+        <v>City</v>
       </c>
       <c r="C1" t="str">
-        <v>City</v>
+        <v>Country</v>
       </c>
       <c r="D1" t="str">
-        <v>Country</v>
+        <v>Phone</v>
       </c>
       <c r="E1" t="str">
-        <v>Phone</v>
+        <v>Email</v>
       </c>
       <c r="F1" t="str">
-        <v>Email</v>
-      </c>
-      <c r="G1" t="str">
         <v>Hours</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>Contact Information</v>
+        <v>123 Main Street, Kuala Lumpur</v>
       </c>
       <c r="B2" t="str">
-        <v>Company Address Here</v>
+        <v>Kuala Lumpur</v>
       </c>
       <c r="C2" t="str">
-        <v>City Name</v>
+        <v>Malaysia</v>
       </c>
       <c r="D2" t="str">
-        <v>Country Name</v>
+        <v>(+60) 3-2212 3456</v>
       </c>
       <c r="E2" t="str">
-        <v>+1234567890</v>
+        <v>info@cerminmataho.my</v>
       </c>
       <c r="F2" t="str">
-        <v>contact@company.com</v>
-      </c>
-      <c r="G2" t="str">
-        <v>Monday-Friday: 9am-5pm, Saturday: 10am-4pm</v>
+        <v>Mon-Fri: 9AM–7PM, Sat-Sun: 10AM–6PM</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G2"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F2"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/OptiStyle.xlsx
+++ b/OptiStyle.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Theme" sheetId="1" state="visible" r:id="rId3"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="71">
   <si>
     <t xml:space="preserve">BackgroundColor</t>
   </si>
@@ -81,18 +81,36 @@
     <t xml:space="preserve">Link</t>
   </si>
   <si>
+    <t xml:space="preserve">IconClass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Target</t>
+  </si>
+  <si>
     <t xml:space="preserve">Home</t>
   </si>
   <si>
     <t xml:space="preserve">#home</t>
   </si>
   <si>
+    <t xml:space="preserve">fas fa-home</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_self</t>
+  </si>
+  <si>
     <t xml:space="preserve">Products</t>
   </si>
   <si>
     <t xml:space="preserve">#products</t>
   </si>
   <si>
+    <t xml:space="preserve">fas fa-glasses</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_blank</t>
+  </si>
+  <si>
     <t xml:space="preserve">Services</t>
   </si>
   <si>
@@ -105,6 +123,12 @@
     <t xml:space="preserve">#contact</t>
   </si>
   <si>
+    <t xml:space="preserve">Book Now</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#appointment</t>
+  </si>
+  <si>
     <t xml:space="preserve">ProductName</t>
   </si>
   <si>
@@ -142,6 +166,12 @@
   </si>
   <si>
     <t xml:space="preserve">fas fa-glasses text-red-600</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Laser Beam Superman Shades</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fire Laserbeams</t>
   </si>
   <si>
     <t xml:space="preserve">Daily Contacts</t>
@@ -590,10 +620,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H11" activeCellId="0" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.50390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -605,37 +635,63 @@
       <c r="B1" s="0" t="s">
         <v>17</v>
       </c>
+      <c r="C1" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>21</v>
+        <v>25</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>25</v>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -654,10 +710,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D13" activeCellId="0" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.4921875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -670,72 +726,86 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="C2" s="1" t="n">
         <v>129.99</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="C3" s="1" t="n">
         <v>189.99</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="C4" s="1" t="n">
         <v>159.99</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="C5" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>9999.99</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" s="1" t="n">
         <v>29.3</v>
       </c>
-      <c r="D5" s="0" t="s">
-        <v>41</v>
+      <c r="D6" s="0" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -764,21 +834,21 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>49.99</v>
@@ -786,10 +856,10 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>79.99</v>
@@ -797,10 +867,10 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>29.99</v>
@@ -832,42 +902,42 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/OptiStyle.xlsx
+++ b/OptiStyle.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\10016153B\Desktop\PythonEss\CerminMata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A5782CF-924E-468E-8FCB-5007915865A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{752B6F8A-2695-4344-85FA-7240443DD85F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" tabRatio="500" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1238,7 +1238,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="15.5" customHeight="1" x14ac:dyDescent="0.35"/>
